--- a/data/Input/Responses.xlsx
+++ b/data/Input/Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD0C1B-3AE2-2541-AE01-F0B5B768A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF612CBA-A395-034E-9E6E-319903A4444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="181">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1451,6 +1451,7 @@
     <col min="20" max="20" width="22.6640625" customWidth="1"/>
     <col min="21" max="21" width="22" customWidth="1"/>
     <col min="22" max="22" width="26.33203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
     <col min="24" max="24" width="22.33203125" customWidth="1"/>
     <col min="25" max="25" width="17.6640625" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
@@ -1885,7 +1886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -1898,29 +1899,17 @@
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="V17" t="s">
-        <v>26</v>
-      </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
-      <c r="X17" t="s">
-        <v>26</v>
-      </c>
       <c r="Y17" t="s">
         <v>26</v>
       </c>
       <c r="Z17" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -1937,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>76</v>
       </c>
@@ -1960,7 +1949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>79</v>
       </c>
@@ -1974,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -1988,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>85</v>
       </c>
@@ -2020,7 +2009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>88</v>
       </c>
@@ -2034,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -2066,7 +2055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2107,7 +2096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>97</v>
       </c>
@@ -2124,7 +2113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>100</v>
       </c>
@@ -2144,7 +2133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -2164,7 +2153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>106</v>
       </c>
@@ -2181,7 +2170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>109</v>
       </c>
@@ -2201,7 +2190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -2215,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>115</v>
       </c>

--- a/data/Input/Responses.xlsx
+++ b/data/Input/Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF612CBA-A395-034E-9E6E-319903A4444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE33DF2-19AE-454D-8623-00D6645074FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,9 +537,6 @@
     <t>Raghavendra</t>
   </si>
   <si>
-    <t>M/W schedule [8:05 - 9:15 a.m.]</t>
-  </si>
-  <si>
     <t>M/W schedule [10:10 - 11:25 a.m.]</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>Ding</t>
+  </si>
+  <si>
+    <t>M/W schedule [8:00 - 9:15 a.m.]</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,19 +1508,19 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" t="s">
         <v>168</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>169</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>170</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>171</v>
-      </c>
-      <c r="U1" t="s">
-        <v>172</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
         <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="53" spans="2:27" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="54" spans="2:27" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="55" spans="2:27" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>

--- a/data/Input/Responses.xlsx
+++ b/data/Input/Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE33DF2-19AE-454D-8623-00D6645074FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B8978-B6CE-5144-B87F-032C09426A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1443,8 @@
     <col min="6" max="6" width="29.83203125" customWidth="1"/>
     <col min="7" max="7" width="37.1640625" customWidth="1"/>
     <col min="8" max="8" width="27.83203125" customWidth="1"/>
-    <col min="13" max="13" width="27.1640625" customWidth="1"/>
+    <col min="13" max="14" width="27.1640625" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
     <col min="16" max="16" width="30.5" customWidth="1"/>
     <col min="17" max="17" width="32.5" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
@@ -2404,7 +2405,7 @@
         <v>143</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>

--- a/data/Input/Responses.xlsx
+++ b/data/Input/Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minyuamzhang/Documents/UNC/2025 Spring/COMP 523/UNC-CS-Course-Scheduling-mk2/data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B8978-B6CE-5144-B87F-032C09426A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF489967-ED0D-2349-AE25-701316E711B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="114" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>118</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>121</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>124</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>127</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>130</v>
       </c>
@@ -2336,8 +2336,11 @@
       <c r="AA37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>133</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>136</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>139</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>141</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>144</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>146</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>149</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>152</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>155</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>159</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>161</v>
       </c>
